--- a/Comparar Resultados.xlsx
+++ b/Comparar Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0BF4B-3439-4FCA-8FB8-7049D4A9F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13317FCE-9BB5-4B34-B3DE-F9D9B897E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="349">
   <si>
     <t>cplex</t>
   </si>
@@ -1060,9 +1060,6 @@
     <t>Combinar [2] y [4]</t>
   </si>
   <si>
-    <t>Una vez arregar inflactibles, volver a correr [4] y comparar con [6]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[7] </t>
   </si>
   <si>
@@ -1076,6 +1073,21 @@
   </si>
   <si>
     <t>Experimento [6] pero con gurobi internamente</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Resolver el modelo relajado y ver una heurística que arregle el modelo</t>
+  </si>
+  <si>
+    <t>Ver que me entregaría el modelo relajado</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>Probar con solución inicial de los griegos</t>
   </si>
 </sst>
 </file>
@@ -2363,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF2F71-FF35-401A-BF65-12EFA2B4DCD7}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2599,7 +2611,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="51">
         <f>'Q = Infinito'!H59</f>
@@ -3710,7 +3722,7 @@
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -3737,7 +3749,7 @@
       <c r="X15" s="81"/>
       <c r="Y15" s="83"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C18" s="49"/>
       <c r="H18" s="96" t="s">
         <v>320</v>
@@ -3756,7 +3768,7 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="96"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>328</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>329</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>330</v>
       </c>
@@ -3780,7 +3792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>331</v>
       </c>
@@ -3788,7 +3800,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>332</v>
       </c>
@@ -3796,7 +3808,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>337</v>
       </c>
@@ -3804,17 +3816,33 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>344</v>
       </c>
+      <c r="C27" t="s">
+        <v>348</v>
+      </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>339</v>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3959,6 +3987,7 @@
     <cfRule type="top10" dxfId="0" priority="273" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3966,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW60"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K58"/>
+    <sheetView topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW16" sqref="BW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4038,7 +4067,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
       <c r="H1" s="103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" s="103"/>
       <c r="J1" s="103"/>
@@ -4123,7 +4152,7 @@
       <c r="BQ1" s="104"/>
       <c r="BR1" s="104"/>
       <c r="BS1" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BT1" s="104"/>
       <c r="BU1" s="104"/>
@@ -18346,6 +18375,14 @@
       </c>
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f>COUNTIF(G3:G58,"&lt;3600")</f>
+        <v>35</v>
+      </c>
+      <c r="L60">
+        <f>COUNTIF(L3:L58,"&lt;3600")</f>
+        <v>55</v>
+      </c>
       <c r="Q60" s="48">
         <f>_xlfn.MODE.SNGL(Q3:Q58)</f>
         <v>0</v>
@@ -18389,6 +18426,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="AE1:AI1"/>
@@ -18396,12 +18439,6 @@
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="V1:AD1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18411,8 +18448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB5D206-0A24-468D-A765-C918D296F42E}">
   <dimension ref="A1:BW60"/>
   <sheetViews>
-    <sheetView topLeftCell="V16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K58"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18482,7 +18519,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
       <c r="H1" s="103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" s="103"/>
       <c r="J1" s="103"/>
@@ -18567,7 +18604,7 @@
       <c r="BQ1" s="104"/>
       <c r="BR1" s="104"/>
       <c r="BS1" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BT1" s="104"/>
       <c r="BU1" s="104"/>
@@ -26717,7 +26754,7 @@
         <v>693.10665609660111</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N66" si="21">(M35-B35)/B35</f>
+        <f t="shared" ref="N35:N58" si="21">(M35-B35)/B35</f>
         <v>0.1724853292835174</v>
       </c>
       <c r="O35" s="24">
@@ -26746,7 +26783,7 @@
         <v>693.10665609660111</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35:W66" si="22">(V35-B35)/B35</f>
+        <f t="shared" ref="W35:W58" si="22">(V35-B35)/B35</f>
         <v>0.1724853292835174</v>
       </c>
       <c r="X35" s="24">
@@ -32849,9 +32886,13 @@
       </c>
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="L60" s="48">
-        <f>_xlfn.MODE.SNGL(Q3:Q58)</f>
-        <v>0</v>
+      <c r="G60">
+        <f>COUNTIF(G3:G58,"&lt;3600")</f>
+        <v>16</v>
+      </c>
+      <c r="L60">
+        <f>COUNTIF(L3:L58,"&lt;3600")</f>
+        <v>39</v>
       </c>
       <c r="M60" s="48">
         <f t="shared" ref="M60:P60" si="29">_xlfn.MODE.SNGL(R3:R58)</f>
@@ -32892,6 +32933,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="V1:AD1"/>
@@ -32899,12 +32946,6 @@
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32914,8 +32955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2138BF-414A-46DE-9684-E4E8E607E8EC}">
   <dimension ref="A1:BW60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K58"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32985,7 +33026,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
       <c r="H1" s="105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" s="106"/>
       <c r="J1" s="106"/>
@@ -33070,7 +33111,7 @@
       <c r="BQ1" s="104"/>
       <c r="BR1" s="104"/>
       <c r="BS1" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BT1" s="104"/>
       <c r="BU1" s="104"/>
@@ -41022,7 +41063,7 @@
         <v>704.28452262280837</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N66" si="17">(M35-B35)/B35</f>
+        <f t="shared" ref="N35:N58" si="17">(M35-B35)/B35</f>
         <v>0.16182505410482975</v>
       </c>
       <c r="O35" s="24">
@@ -41051,7 +41092,7 @@
         <v>704.28452262280837</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35:W66" si="18">(V35-B35)/B35</f>
+        <f t="shared" ref="W35:W58" si="18">(V35-B35)/B35</f>
         <v>0.16182505410482975</v>
       </c>
       <c r="X35" s="24">
@@ -47016,6 +47057,14 @@
       </c>
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f>COUNTIF(G3:G58,"&lt;3600")</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>COUNTIF(L3:L58,"&lt;3600")</f>
+        <v>28</v>
+      </c>
       <c r="Q60" s="48">
         <f>_xlfn.MODE.SNGL(Q3:Q58)</f>
         <v>0</v>
@@ -47152,7 +47201,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
       <c r="H1" s="103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" s="103"/>
       <c r="J1" s="103"/>
@@ -47237,7 +47286,7 @@
       <c r="BQ1" s="104"/>
       <c r="BR1" s="104"/>
       <c r="BS1" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BT1" s="104"/>
       <c r="BU1" s="104"/>
@@ -54925,7 +54974,7 @@
         <v>770.7485076396033</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N66" si="17">(M35-B35)/B35</f>
+        <f t="shared" ref="N35:N58" si="17">(M35-B35)/B35</f>
         <v>0.13266101595294538</v>
       </c>
       <c r="O35" s="24">
@@ -54954,7 +55003,7 @@
         <v>758.29717689487507</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35:W66" si="18">(V35-B35)/B35</f>
+        <f t="shared" ref="W35:W58" si="18">(V35-B35)/B35</f>
         <v>0.1143630409435866</v>
       </c>
       <c r="X35" s="24">
@@ -60873,7 +60922,7 @@
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
       <c r="H1" s="103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" s="103"/>
       <c r="J1" s="103"/>
@@ -60958,7 +61007,7 @@
       <c r="BQ1" s="104"/>
       <c r="BR1" s="104"/>
       <c r="BS1" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BT1" s="104"/>
       <c r="BU1" s="104"/>

--- a/Comparar Resultados.xlsx
+++ b/Comparar Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCFDF41-8F8B-4238-8BC6-06398BCCF301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438F523-3332-4BD6-BAD1-692329F0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="349">
   <si>
     <t>cplex</t>
   </si>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1651,6 +1651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2359,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF2F71-FF35-401A-BF65-12EFA2B4DCD7}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3726,7 +3727,7 @@
         <f>'Q = 5'!BS59</f>
         <v>946.74475648390569</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="90">
         <f t="shared" si="13"/>
         <v>706.95780065911606</v>
       </c>
@@ -3750,7 +3751,7 @@
         <f>'Q = 5'!BU59</f>
         <v>6.7813298463157548E-2</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="56">
         <f t="shared" si="14"/>
         <v>4.8571363311831803E-2</v>
       </c>
@@ -3774,7 +3775,7 @@
         <f>'Q = 5'!BV59</f>
         <v>9.0448660666827815E-2</v>
       </c>
-      <c r="S15" s="54">
+      <c r="S15" s="56">
         <f t="shared" si="15"/>
         <v>7.4834795266927295E-2</v>
       </c>
@@ -3798,9 +3799,19 @@
         <f>'Q = 5'!BW59</f>
         <v>18.76137887518437</v>
       </c>
-      <c r="Y15" s="57">
+      <c r="Y15" s="59">
         <f t="shared" si="16"/>
         <v>24.008101370502423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="105" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="105" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -4049,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW3" sqref="BW3:BW58"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18816,12 +18827,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="AE1:AI1"/>
@@ -18829,6 +18834,12 @@
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="V1:AD1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18838,8 +18849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB5D206-0A24-468D-A765-C918D296F42E}">
   <dimension ref="A1:BW60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BW3" sqref="BW3:BW58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33659,12 +33670,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="V1:AD1"/>
@@ -33672,6 +33677,12 @@
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Comparar Resultados.xlsx
+++ b/Comparar Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438F523-3332-4BD6-BAD1-692329F0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E2827-C094-4C69-8C69-1366C7FE40A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="6" r:id="rId1"/>
@@ -1615,6 +1615,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,7 +1652,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2360,64 +2360,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF2F71-FF35-401A-BF65-12EFA2B4DCD7}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="99" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="99" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="100" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="94" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="96"/>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
         <v>315</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>310</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>2891.9539470740729</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>342</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>2046.9459391721655</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>311</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>36.100380253214702</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>312</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>36.315785673571142</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>313</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>11.163672642678629</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>314</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>11.163408320071415</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>321</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>11.163305088714266</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>323</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>11.350760850821379</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>324</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>11.383510357535652</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>326</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>13.153624759428533</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>331</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>63.347670427953958</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>337</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>69.179215630164521</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>341</v>
       </c>
@@ -3804,36 +3804,36 @@
         <v>24.008101370502423</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="93" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="105" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C18" s="49"/>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="T18" s="93" t="s">
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="T18" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>328</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>329</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>330</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>331</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>332</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>337</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>339</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>344</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>347</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>346</v>
       </c>
@@ -4064,167 +4064,166 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="9" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="C1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="100" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="100" t="s">
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="100" t="s">
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="100" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="101"/>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="100" t="s">
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="BO1" s="101"/>
-      <c r="BP1" s="101"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="100" t="s">
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
+      <c r="BT1" s="102"/>
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="102"/>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>20.03119062543847</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>20.277658409439031</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>20.937455761805179</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>20.480074193840849</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>19.982795153884219</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>19.536324473191051</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>20.80563950343058</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>21.26866474365816</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>22.416025773482399</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>18.263526421971619</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>18.30110906544142</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>18.39271351685748</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>18.708443089481442</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>18.288124381052331</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>18.19102709637955</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>18.329945571813731</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>18.201836905814709</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>22.652393603883681</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>21.18952240436338</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -9471,7 +9470,7 @@
         <v>25.464579593809319</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>18.811371666425838</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>20.50292487237602</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>23.342261012271049</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>23.06964743859135</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>21.237539583770559</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>22.594175120908769</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>21.817819539271291</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
@@ -11479,7 +11478,7 @@
         <v>21.177668623719359</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>17.918526339950041</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>21.11775004966184</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>43</v>
       </c>
@@ -12232,7 +12231,7 @@
         <v>22.765447669522839</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>21.68998466106132</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>19.260435280436649</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>46</v>
       </c>
@@ -12985,7 +12984,7 @@
         <v>19.37277428307571</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
@@ -13236,7 +13235,7 @@
         <v>19.439912350382659</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>19.255775953875851</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>49</v>
       </c>
@@ -13738,7 +13737,7 @@
         <v>18.292483736202119</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
@@ -13989,7 +13988,7 @@
         <v>23.445382584910838</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>21.06753950077109</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
@@ -14491,7 +14490,7 @@
         <v>17.664569436060269</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>53</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>21.909550684737042</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>54</v>
       </c>
@@ -14993,7 +14992,7 @@
         <v>27.17404114003293</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>55</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>35.76543331388384</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>56</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>18.08011525808833</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>57</v>
       </c>
@@ -15746,7 +15745,7 @@
         <v>30.79436137904413</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>58</v>
       </c>
@@ -15997,7 +15996,7 @@
         <v>22.821497702691701</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>59</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>26.239724792633201</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>19.0558157202322</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>61</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>21.327529639657591</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>62</v>
       </c>
@@ -17001,7 +17000,7 @@
         <v>25.124689907347779</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>63</v>
       </c>
@@ -17252,7 +17251,7 @@
         <v>26.41740327104926</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>64</v>
       </c>
@@ -17503,7 +17502,7 @@
         <v>17.930607815925029</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>24.119727598037571</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
@@ -18005,7 +18004,7 @@
         <v>21.000863320287319</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>67</v>
       </c>
@@ -18256,7 +18255,7 @@
         <v>24.95310149020515</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>68</v>
       </c>
@@ -18507,7 +18506,7 @@
         <v>17.919511557556689</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>69</v>
       </c>
@@ -18775,7 +18774,7 @@
         <v>21.360660974708821</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="G60">
         <f>COUNTIF(G3:G58,"&lt;3600")</f>
         <v>35</v>
@@ -18827,6 +18826,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="AE1:AI1"/>
@@ -18834,12 +18839,6 @@
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="V1:AD1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18853,166 +18852,166 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1"/>
-    <col min="17" max="21" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.88671875" customWidth="1"/>
-    <col min="26" max="30" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="C1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="100" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="100" t="s">
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="100" t="s">
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="100" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="101"/>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="100" t="s">
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="BO1" s="101"/>
-      <c r="BP1" s="101"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="100" t="s">
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
+      <c r="BT1" s="102"/>
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="102"/>
     </row>
-    <row r="2" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -19239,7 +19238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
@@ -19491,7 +19490,7 @@
         <v>22.861667586397381</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
@@ -19743,7 +19742,7 @@
         <v>28.99798524528742</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -19995,7 +19994,7 @@
         <v>32.449673051200797</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -20247,7 +20246,7 @@
         <v>27.50417074356228</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
@@ -20499,7 +20498,7 @@
         <v>25.994921912765129</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -20751,7 +20750,7 @@
         <v>26.626209683762859</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -21003,7 +21002,7 @@
         <v>29.39501858684234</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -21255,7 +21254,7 @@
         <v>33.48778344434686</v>
       </c>
     </row>
-    <row r="11" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
@@ -21507,7 +21506,7 @@
         <v>35.710565094091002</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -21759,7 +21758,7 @@
         <v>24.734471199847761</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
@@ -22011,7 +22010,7 @@
         <v>27.803893820801751</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -22263,7 +22262,7 @@
         <v>33.682838930934658</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>91</v>
       </c>
@@ -22515,7 +22514,7 @@
         <v>35.240358440577992</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -22767,7 +22766,7 @@
         <v>39.953365744603801</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
@@ -23019,7 +23018,7 @@
         <v>30.330908756610011</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
@@ -23271,7 +23270,7 @@
         <v>37.160557713685563</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
@@ -23523,7 +23522,7 @@
         <v>30.640990677895029</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>96</v>
       </c>
@@ -23775,7 +23774,7 @@
         <v>24.09191589476541</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>97</v>
       </c>
@@ -24027,7 +24026,7 @@
         <v>34.504219625052073</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>98</v>
       </c>
@@ -24279,7 +24278,7 @@
         <v>37.626403764262797</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>99</v>
       </c>
@@ -24531,7 +24530,7 @@
         <v>28.884075468359519</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
@@ -24783,7 +24782,7 @@
         <v>24.057078845240181</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>101</v>
       </c>
@@ -25035,7 +25034,7 @@
         <v>28.436703124642371</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>102</v>
       </c>
@@ -25287,7 +25286,7 @@
         <v>31.38191624837928</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
@@ -25539,7 +25538,7 @@
         <v>28.250740654300898</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
@@ -25791,7 +25790,7 @@
         <v>38.79101941194385</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>105</v>
       </c>
@@ -26043,7 +26042,7 @@
         <v>28.872826638398688</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>106</v>
       </c>
@@ -26295,7 +26294,7 @@
         <v>26.269301656400781</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>107</v>
       </c>
@@ -26547,7 +26546,7 @@
         <v>25.527003559563308</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>108</v>
       </c>
@@ -26799,7 +26798,7 @@
         <v>24.59234976302832</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>109</v>
       </c>
@@ -27051,7 +27050,7 @@
         <v>28.03985185697675</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>110</v>
       </c>
@@ -27303,7 +27302,7 @@
         <v>32.62643552576192</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>111</v>
       </c>
@@ -27555,7 +27554,7 @@
         <v>23.309026846475899</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>112</v>
       </c>
@@ -27807,7 +27806,7 @@
         <v>24.604405212868009</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>29.128814840037371</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>114</v>
       </c>
@@ -28311,7 +28310,7 @@
         <v>22.845745175704359</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>115</v>
       </c>
@@ -28563,7 +28562,7 @@
         <v>26.145117004914209</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>116</v>
       </c>
@@ -28815,7 +28814,7 @@
         <v>26.393500429624691</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>117</v>
       </c>
@@ -29067,7 +29066,7 @@
         <v>30.12755240523256</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>118</v>
       </c>
@@ -29319,7 +29318,7 @@
         <v>24.946749692969021</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>119</v>
       </c>
@@ -29571,7 +29570,7 @@
         <v>28.671428001997992</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>120</v>
       </c>
@@ -29823,7 +29822,7 @@
         <v>36.931850599031897</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>121</v>
       </c>
@@ -30075,7 +30074,7 @@
         <v>40.707963444432252</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>122</v>
       </c>
@@ -30327,7 +30326,7 @@
         <v>30.404696682188661</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>123</v>
       </c>
@@ -30579,7 +30578,7 @@
         <v>47.264164974354209</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>124</v>
       </c>
@@ -30831,7 +30830,7 @@
         <v>43.20714960875921</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>125</v>
       </c>
@@ -31083,7 +31082,7 @@
         <v>33.364115878986198</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>126</v>
       </c>
@@ -31335,7 +31334,7 @@
         <v>32.876170410681517</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>127</v>
       </c>
@@ -31587,7 +31586,7 @@
         <v>26.83354882607237</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>128</v>
       </c>
@@ -31839,7 +31838,7 @@
         <v>38.347379373013972</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>129</v>
       </c>
@@ -32091,7 +32090,7 @@
         <v>33.628511227574201</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>130</v>
       </c>
@@ -32343,7 +32342,7 @@
         <v>27.914199564047159</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>131</v>
       </c>
@@ -32595,7 +32594,7 @@
         <v>28.42933704582974</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>132</v>
       </c>
@@ -32847,7 +32846,7 @@
         <v>32.379720653360707</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>133</v>
       </c>
@@ -33099,7 +33098,7 @@
         <v>35.969110043067488</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>134</v>
       </c>
@@ -33351,7 +33350,7 @@
         <v>27.96779419416562</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>69</v>
       </c>
@@ -33622,7 +33621,7 @@
         <v>30.659379907244247</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="G60">
         <f>COUNTIF(G3:G58,"&lt;3600")</f>
         <v>16</v>
@@ -33670,6 +33669,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="M1:U1"/>
     <mergeCell ref="V1:AD1"/>
@@ -33677,12 +33682,6 @@
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33696,166 +33695,166 @@
       <selection activeCell="E58" sqref="C3:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="9" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="C1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="102" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="100" t="s">
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="100" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="100" t="s">
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="100" t="s">
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="100" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="101"/>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="100" t="s">
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="BO1" s="101"/>
-      <c r="BP1" s="101"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="100" t="s">
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
+      <c r="BT1" s="102"/>
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="102"/>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -34082,7 +34081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>135</v>
       </c>
@@ -34334,7 +34333,7 @@
         <v>20.7683658617083</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>136</v>
       </c>
@@ -34586,7 +34585,7 @@
         <v>22.543663624720651</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>137</v>
       </c>
@@ -34838,7 +34837,7 @@
         <v>27.00102718090638</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>138</v>
       </c>
@@ -35090,7 +35089,7 @@
         <v>28.947633136063811</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>139</v>
       </c>
@@ -35342,7 +35341,7 @@
         <v>22.596972534479569</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>140</v>
       </c>
@@ -35594,7 +35593,7 @@
         <v>21.770968125946819</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>141</v>
       </c>
@@ -35846,7 +35845,7 @@
         <v>24.29657203103416</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>142</v>
       </c>
@@ -36098,7 +36097,7 @@
         <v>28.823937547532839</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>143</v>
       </c>
@@ -36350,7 +36349,7 @@
         <v>27.08743889634497</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>144</v>
       </c>
@@ -36602,7 +36601,7 @@
         <v>23.170131108211351</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>145</v>
       </c>
@@ -36854,7 +36853,7 @@
         <v>25.754133033426481</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>146</v>
       </c>
@@ -37106,7 +37105,7 @@
         <v>36.569844062626359</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>147</v>
       </c>
@@ -37358,7 +37357,7 @@
         <v>28.887151817837729</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>148</v>
       </c>
@@ -37610,7 +37609,7 @@
         <v>31.444784926250581</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>149</v>
       </c>
@@ -37862,7 +37861,7 @@
         <v>33.863671733858062</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>150</v>
       </c>
@@ -38114,7 +38113,7 @@
         <v>34.439615981653333</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>151</v>
       </c>
@@ -38366,7 +38365,7 @@
         <v>32.774932503513988</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>152</v>
       </c>
@@ -38618,7 +38617,7 @@
         <v>22.250501862494271</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>153</v>
       </c>
@@ -38870,7 +38869,7 @@
         <v>30.330979594634851</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>154</v>
       </c>
@@ -39122,7 +39121,7 @@
         <v>28.9349636846222</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>155</v>
       </c>
@@ -39374,7 +39373,7 @@
         <v>26.047687883675099</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>156</v>
       </c>
@@ -39626,7 +39625,7 @@
         <v>22.47068861955777</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>157</v>
       </c>
@@ -39878,7 +39877,7 @@
         <v>26.712043916340921</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>158</v>
       </c>
@@ -40130,7 +40129,7 @@
         <v>24.8882136868313</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>159</v>
       </c>
@@ -40382,7 +40381,7 @@
         <v>27.147168917069209</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>160</v>
       </c>
@@ -40634,7 +40633,7 @@
         <v>27.426522473199292</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>161</v>
       </c>
@@ -40886,7 +40885,7 @@
         <v>24.57030751481652</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>162</v>
       </c>
@@ -41138,7 +41137,7 @@
         <v>23.704408356081689</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>163</v>
       </c>
@@ -41390,7 +41389,7 @@
         <v>20.72151507264935</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>164</v>
       </c>
@@ -41642,7 +41641,7 @@
         <v>22.078249479737131</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>165</v>
       </c>
@@ -41894,7 +41893,7 @@
         <v>26.134423473384231</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>166</v>
       </c>
@@ -42146,7 +42145,7 @@
         <v>23.264923798618842</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>167</v>
       </c>
@@ -42398,7 +42397,7 @@
         <v>27.141601488087321</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>168</v>
       </c>
@@ -42650,7 +42649,7 @@
         <v>25.66380193061195</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>169</v>
       </c>
@@ -42902,7 +42901,7 @@
         <v>21.828988821711391</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>170</v>
       </c>
@@ -43154,7 +43153,7 @@
         <v>24.357530264835809</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>171</v>
       </c>
@@ -43406,7 +43405,7 @@
         <v>24.599920441908761</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>172</v>
       </c>
@@ -43658,7 +43657,7 @@
         <v>25.694414548529309</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>173</v>
       </c>
@@ -43910,7 +43909,7 @@
         <v>22.74562276070937</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>174</v>
       </c>
@@ -44162,7 +44161,7 @@
         <v>22.228766660997639</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>175</v>
       </c>
@@ -44414,7 +44413,7 @@
         <v>24.957851270167161</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>176</v>
       </c>
@@ -44666,7 +44665,7 @@
         <v>31.012989743659269</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>177</v>
       </c>
@@ -44918,7 +44917,7 @@
         <v>29.253852416062731</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>178</v>
       </c>
@@ -45170,7 +45169,7 @@
         <v>27.5256998155266</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>179</v>
       </c>
@@ -45422,7 +45421,7 @@
         <v>31.77011306625791</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>180</v>
       </c>
@@ -45674,7 +45673,7 @@
         <v>36.481083548581218</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>181</v>
       </c>
@@ -45926,7 +45925,7 @@
         <v>29.808699221303691</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>182</v>
       </c>
@@ -46178,7 +46177,7 @@
         <v>27.37314695627429</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>183</v>
       </c>
@@ -46430,7 +46429,7 @@
         <v>26.372424329817299</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>184</v>
       </c>
@@ -46682,7 +46681,7 @@
         <v>25.998115482088181</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>185</v>
       </c>
@@ -46934,7 +46933,7 @@
         <v>30.721221209596841</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>186</v>
       </c>
@@ -47186,7 +47185,7 @@
         <v>26.128166073746979</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>187</v>
       </c>
@@ -47438,7 +47437,7 @@
         <v>26.627228296268729</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>188</v>
       </c>
@@ -47690,7 +47689,7 @@
         <v>27.94965634658001</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>189</v>
       </c>
@@ -47942,7 +47941,7 @@
         <v>26.65836130557582</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>190</v>
       </c>
@@ -48194,7 +48193,7 @@
         <v>26.542732696095481</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>69</v>
       </c>
@@ -48465,7 +48464,7 @@
         <v>26.729739841693238</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="G60">
         <f>COUNTIF(G3:G58,"&lt;3600")</f>
         <v>9</v>
@@ -48543,166 +48542,165 @@
       <selection activeCell="L3" sqref="L3:L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="C1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="100" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="100" t="s">
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="100" t="s">
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="100" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="101"/>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="100" t="s">
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="BO1" s="101"/>
-      <c r="BP1" s="101"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="100" t="s">
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
+      <c r="BT1" s="102"/>
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="102"/>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -48929,7 +48927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>191</v>
       </c>
@@ -49181,7 +49179,7 @@
         <v>19.714019024791199</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>192</v>
       </c>
@@ -49433,7 +49431,7 @@
         <v>20.8705870705191</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>193</v>
       </c>
@@ -49685,7 +49683,7 @@
         <v>27.31837955964729</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>194</v>
       </c>
@@ -49937,7 +49935,7 @@
         <v>17.97293387851678</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>195</v>
       </c>
@@ -50189,7 +50187,7 @@
         <v>22.800113355088978</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>196</v>
       </c>
@@ -50441,7 +50439,7 @@
         <v>22.570860438002271</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>197</v>
       </c>
@@ -50693,7 +50691,7 @@
         <v>22.643138594226912</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>198</v>
       </c>
@@ -50945,7 +50943,7 @@
         <v>25.816706577269361</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>199</v>
       </c>
@@ -51197,7 +51195,7 @@
         <v>21.054136297944929</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>200</v>
       </c>
@@ -51449,7 +51447,7 @@
         <v>21.950732718268409</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>201</v>
       </c>
@@ -51701,7 +51699,7 @@
         <v>24.839033475006001</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>202</v>
       </c>
@@ -51953,7 +51951,7 @@
         <v>22.749434745684269</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>203</v>
       </c>
@@ -52205,7 +52203,7 @@
         <v>23.32756796162575</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>204</v>
       </c>
@@ -52457,7 +52455,7 @@
         <v>23.100044268742199</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>205</v>
       </c>
@@ -52709,7 +52707,7 @@
         <v>23.165626207413151</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>206</v>
       </c>
@@ -52961,7 +52959,7 @@
         <v>21.945647525275131</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>207</v>
       </c>
@@ -53213,7 +53211,7 @@
         <v>21.803272968344391</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>208</v>
       </c>
@@ -53465,7 +53463,7 @@
         <v>21.174235705798491</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>209</v>
       </c>
@@ -53717,7 +53715,7 @@
         <v>26.353617158252749</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>210</v>
       </c>
@@ -53969,7 +53967,7 @@
         <v>24.89073461391963</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>211</v>
       </c>
@@ -54221,7 +54219,7 @@
         <v>22.016574984928589</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>212</v>
       </c>
@@ -54473,7 +54471,7 @@
         <v>21.12925733127631</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>213</v>
       </c>
@@ -54725,7 +54723,7 @@
         <v>22.906056426884611</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>214</v>
       </c>
@@ -54977,7 +54975,7 @@
         <v>24.6647163935937</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>215</v>
       </c>
@@ -55229,7 +55227,7 @@
         <v>23.061397188669069</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>216</v>
       </c>
@@ -55481,7 +55479,7 @@
         <v>22.945310578448701</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>217</v>
       </c>
@@ -55733,7 +55731,7 @@
         <v>23.404228834016251</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>218</v>
       </c>
@@ -55985,7 +55983,7 @@
         <v>23.705076899286361</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>219</v>
       </c>
@@ -56237,7 +56235,7 @@
         <v>18.0327659020666</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>220</v>
       </c>
@@ -56489,7 +56487,7 @@
         <v>21.96650473419577</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>221</v>
       </c>
@@ -56741,7 +56739,7 @@
         <v>22.81166222998872</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>222</v>
       </c>
@@ -56993,7 +56991,7 @@
         <v>21.923150704288851</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>223</v>
       </c>
@@ -57245,7 +57243,7 @@
         <v>21.68067351463251</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>224</v>
       </c>
@@ -57497,7 +57495,7 @@
         <v>21.949246023222809</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>225</v>
       </c>
@@ -57749,7 +57747,7 @@
         <v>22.675803699856619</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>226</v>
       </c>
@@ -58001,7 +57999,7 @@
         <v>21.666660103807221</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>227</v>
       </c>
@@ -58253,7 +58251,7 @@
         <v>20.19045155309141</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>228</v>
       </c>
@@ -58505,7 +58503,7 @@
         <v>22.989048272650692</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>229</v>
       </c>
@@ -58757,7 +58755,7 @@
         <v>23.312473465083169</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>230</v>
       </c>
@@ -59009,7 +59007,7 @@
         <v>18.960436312202361</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>231</v>
       </c>
@@ -59261,7 +59259,7 @@
         <v>24.348090532002971</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>232</v>
       </c>
@@ -59513,7 +59511,7 @@
         <v>25.69591872044839</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>233</v>
       </c>
@@ -59765,7 +59763,7 @@
         <v>23.679566995147621</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>234</v>
       </c>
@@ -60017,7 +60015,7 @@
         <v>20.916367597552021</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>235</v>
       </c>
@@ -60269,7 +60267,7 @@
         <v>23.574222337314861</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>236</v>
       </c>
@@ -60521,7 +60519,7 @@
         <v>23.50590806240216</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>237</v>
       </c>
@@ -60773,7 +60771,7 @@
         <v>23.243422897160048</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>238</v>
       </c>
@@ -61025,7 +61023,7 @@
         <v>20.71719265556894</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>239</v>
       </c>
@@ -61277,7 +61275,7 @@
         <v>21.21447859876789</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>240</v>
       </c>
@@ -61529,7 +61527,7 @@
         <v>24.438701784238219</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>241</v>
       </c>
@@ -61781,7 +61779,7 @@
         <v>22.66507428623736</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>242</v>
       </c>
@@ -62033,7 +62031,7 @@
         <v>22.0537490457762</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>243</v>
       </c>
@@ -62285,7 +62283,7 @@
         <v>22.303246679203589</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>244</v>
       </c>
@@ -62537,7 +62535,7 @@
         <v>22.801319441339</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>245</v>
       </c>
@@ -62789,7 +62787,7 @@
         <v>22.753745818976309</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>246</v>
       </c>
@@ -63041,7 +63039,7 @@
         <v>19.680123457498851</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>69</v>
       </c>
@@ -63318,7 +63316,7 @@
         <v>22.529347253681461</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="Q60" s="48">
         <f>_xlfn.MODE.SNGL(Q3:Q58)</f>
         <v>0</v>
@@ -63388,163 +63386,163 @@
       <selection activeCell="BR3" sqref="BR3:BR58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="C1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="100" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="100" t="s">
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="100" t="s">
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="100" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="101"/>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="100" t="s">
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="BO1" s="101"/>
-      <c r="BP1" s="101"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="100" t="s">
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
+      <c r="BT1" s="102"/>
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="102"/>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -63771,7 +63769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>247</v>
       </c>
@@ -64023,7 +64021,7 @@
         <v>18.53247169195674</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>248</v>
       </c>
@@ -64275,7 +64273,7 @@
         <v>18.64496407452971</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>249</v>
       </c>
@@ -64527,7 +64525,7 @@
         <v>18.689317754516381</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>250</v>
       </c>
@@ -64779,7 +64777,7 @@
         <v>18.41753790727817</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>251</v>
       </c>
@@ -65031,7 +65029,7 @@
         <v>18.66090563898906</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>252</v>
       </c>
@@ -65283,7 +65281,7 @@
         <v>18.25180064411834</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>253</v>
       </c>
@@ -65535,7 +65533,7 @@
         <v>18.557357961731029</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>254</v>
       </c>
@@ -65787,7 +65785,7 @@
         <v>18.191229598782961</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>255</v>
       </c>
@@ -66039,7 +66037,7 @@
         <v>18.242750977631658</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>256</v>
       </c>
@@ -66291,7 +66289,7 @@
         <v>19.380551045527682</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>257</v>
       </c>
@@ -66543,7 +66541,7 @@
         <v>18.332264312775809</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>258</v>
       </c>
@@ -66795,7 +66793,7 @@
         <v>18.217608683696021</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>259</v>
       </c>
@@ -67047,7 +67045,7 @@
         <v>18.555672174552459</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>260</v>
       </c>
@@ -67299,7 +67297,7 @@
         <v>18.630059808958318</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>261</v>
       </c>
@@ -67551,7 +67549,7 @@
         <v>18.167474315268919</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>262</v>
       </c>
@@ -67803,7 +67801,7 @@
         <v>18.11179871610366</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>263</v>
       </c>
@@ -68055,7 +68053,7 @@
         <v>18.124260277301069</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>264</v>
       </c>
@@ -68307,7 +68305,7 @@
         <v>19.62512841080315</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>265</v>
       </c>
@@ -68559,7 +68557,7 @@
         <v>20.105380848422651</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>266</v>
       </c>
@@ -68811,7 +68809,7 @@
         <v>19.234451354807241</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>267</v>
       </c>
@@ -69063,7 +69061,7 @@
         <v>17.060238136025141</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>268</v>
       </c>
@@ -69315,7 +69313,7 @@
         <v>19.842843186063689</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>269</v>
       </c>
@@ -69567,7 +69565,7 @@
         <v>19.723466148227448</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>270</v>
       </c>
@@ -69819,7 +69817,7 @@
         <v>19.749536809185521</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>271</v>
       </c>
@@ -70071,7 +70069,7 @@
         <v>17.837673522066321</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>272</v>
       </c>
@@ -70323,7 +70321,7 @@
         <v>18.239690451417118</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>273</v>
       </c>
@@ -70575,7 +70573,7 @@
         <v>17.787857949174938</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>274</v>
       </c>
@@ -70827,7 +70825,7 @@
         <v>19.110043239360671</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>275</v>
       </c>
@@ -71079,7 +71077,7 @@
         <v>17.444856959488241</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>276</v>
       </c>
@@ -71331,7 +71329,7 @@
         <v>19.453950137365609</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>277</v>
       </c>
@@ -71583,7 +71581,7 @@
         <v>19.194255310203879</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>278</v>
       </c>
@@ -71835,7 +71833,7 @@
         <v>19.33607693095691</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>279</v>
       </c>
@@ -72087,7 +72085,7 @@
         <v>17.7187593920622</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>280</v>
       </c>
@@ -72339,7 +72337,7 @@
         <v>18.329403205215929</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>281</v>
       </c>
@@ -72591,7 +72589,7 @@
         <v>20.014237358653919</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>282</v>
       </c>
@@ -72843,7 +72841,7 @@
         <v>18.836454503703859</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>283</v>
       </c>
@@ -73095,7 +73093,7 @@
         <v>17.309195525245741</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>284</v>
       </c>
@@ -73347,7 +73345,7 @@
         <v>18.142231663875279</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>285</v>
       </c>
@@ -73599,7 +73597,7 @@
         <v>19.283299426222221</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>286</v>
       </c>
@@ -73851,7 +73849,7 @@
         <v>17.545831922162321</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>287</v>
       </c>
@@ -74103,7 +74101,7 @@
         <v>18.898404948785899</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>288</v>
       </c>
@@ -74355,7 +74353,7 @@
         <v>19.28434049542993</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>289</v>
       </c>
@@ -74607,7 +74605,7 @@
         <v>19.478418659372259</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>290</v>
       </c>
@@ -74859,7 +74857,7 @@
         <v>18.794437233638021</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>291</v>
       </c>
@@ -75111,7 +75109,7 @@
         <v>19.24284296552651</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>292</v>
       </c>
@@ -75363,7 +75361,7 @@
         <v>19.337759212823581</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>293</v>
       </c>
@@ -75615,7 +75613,7 @@
         <v>20.141395982028921</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>294</v>
       </c>
@@ -75867,7 +75865,7 @@
         <v>18.469035753840579</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>295</v>
       </c>
@@ -76119,7 +76117,7 @@
         <v>18.98550001261756</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>296</v>
       </c>
@@ -76371,7 +76369,7 @@
         <v>19.372894852049651</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>297</v>
       </c>
@@ -76623,7 +76621,7 @@
         <v>19.196721567632629</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>298</v>
       </c>
@@ -76875,7 +76873,7 @@
         <v>18.75745932324789</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>299</v>
       </c>
@@ -77127,7 +77125,7 @@
         <v>19.59487111228518</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>300</v>
       </c>
@@ -77379,7 +77377,7 @@
         <v>18.42764525976963</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>301</v>
       </c>
@@ -77631,7 +77629,7 @@
         <v>19.49539472763427</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>302</v>
       </c>
@@ -77883,7 +77881,7 @@
         <v>18.527206929214302</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>69</v>
       </c>
@@ -78154,7 +78152,7 @@
         <v>18.76137887518437</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="Q60" s="48">
         <f>_xlfn.MODE.SNGL(Q3:Q58)</f>
         <v>0</v>
